--- a/DOM_Banner/output/dept_banner/Rilwan Balogun_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Rilwan Balogun_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,348 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>James Mamaril-Davis, Pedro Aguilar‐Salinas, Rilwan Balogun, Martin E. Weinand</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4205790913</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Spinal cord stimulation for medically refractory sphincter of Oddi dysfunction: A case report</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5081382116", "https://openalex.org/A5012309281", "https://openalex.org/A5040362845", "https://openalex.org/A5034579972"), au_display_name = c("James Mamaril-Davis", "Pedro Aguilar‐Salinas", "Rilwan Balogun", "Martin E. Weinand"), au_orcid = c("https://orcid.org/0000-0002-1868-9075", "https://orcid.org/0000-0002-5268-6548", NA, NA), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Department of Neurosurgery, University of Arizona, Tucson, AZ, United States", 
-"Department of Neurosurgery, University of Arizona, Tucson, AZ, United States", "Department of Gastroenterology and Hepatology, University of Arizona, Tucson, AZ, United States", "Department of Neurosurgery, University of Arizona, Tucson, AZ, United States"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", "University of Arizona", 
-"University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US"), institution_type = c("education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sphincter of Oddi dysfunction (SOD) is a clinical syndrome characterized by an abnormality of sphincter relaxation and resultant obstruction of biliary or pancreatic flow. Here, we report a case of spinal cord stimulation (SCS) for refractory right upper quadrant abdominal pain due to SOD. Prior to SCS, the patient failed endoscopic sphincterotomy, pharmacotherapy, and celiac plexus blocks. The patient’s visual analog score for pain intensity improved from 8 to 9/10 to 1/10 following an SCS trial. The patient therefore underwent permanent SCS placement at the T6-T7 level and had 90% of pain relief after 18-months follow-up.</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>Interdisciplinary Neurosurgery</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Interdisciplinary Neurosurgery</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2898421099</t>
+          <t>https://doi.org/10.1016/j.inat.2022.101487</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2214-7519</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.inat.2022.101487</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by-nc-nd</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>101487</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>101487</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.inat.2022.101487</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4205790913</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4205790913", doi = "https://doi.org/10.1016/j.inat.2022.101487")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.inat.2022.101487</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W826389906", "https://openalex.org/W1536421754", "https://openalex.org/W1594938473", "https://openalex.org/W1724024630", "https://openalex.org/W1768928507", "https://openalex.org/W1887292859", "https://openalex.org/W1904156058", "https://openalex.org/W1968912101", "https://openalex.org/W1986685971", "https://openalex.org/W2007540811", "https://openalex.org/W2014779151", "https://openalex.org/W2037009531", "https://openalex.org/W2051592118", "https://openalex.org/W2062169851", 
-"https://openalex.org/W2071511771", "https://openalex.org/W2083875276", "https://openalex.org/W2084752974", "https://openalex.org/W2117856810", "https://openalex.org/W2160738106", "https://openalex.org/W2164941245", "https://openalex.org/W2577633524", "https://openalex.org/W2601240869", "https://openalex.org/W3006229584", "https://openalex.org/W3116407877")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1976407436", "https://openalex.org/W3164468", "https://openalex.org/W2144535934", "https://openalex.org/W1987081966", "https://openalex.org/W77171542", "https://openalex.org/W2345317082", "https://openalex.org/W2136390360", "https://openalex.org/W1700449758", "https://openalex.org/W2009923160", "https://openalex.org/W2412972873")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Rilwan Balogun_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Rilwan Balogun_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Neurosurgery, University of Arizona, Tucson, AZ, United States; Department of Neurosurgery, University of Arizona, Tucson, AZ, United States; Department of Gastroenterology and Hepatology, University of Arizona, Tucson, AZ, United States; Department of Neurosurgery, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4205790913</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Spinal cord stimulation for medically refractory sphincter of Oddi dysfunction: A case report</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Interdisciplinary Neurosurgery</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.inat.2022.101487</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.inat.2022.101487</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
